--- a/biology/Médecine/Épidermolyse_bulleuse_simple/Épidermolyse_bulleuse_simple.xlsx
+++ b/biology/Médecine/Épidermolyse_bulleuse_simple/Épidermolyse_bulleuse_simple.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'épidermolyse bulleuse simple est une classe des épidermolyses bulleuses héréditaires. Elle correspond à un groupe de maladies caractérisées par l’apparition de bulles après une sollicitation mécanique.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Types cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'EBS appartient au groupe des Épidermolyses bulleuses héréditaires (EBH). Les EBH sont des maladies génétiques cutanées, classées en trois groupes principaux : les EB simples, les EB dystrophiques et les EB jonctionnelles.
 La recherche spécifique a découvert plus de 20 types différents d'EB dont cinq types cliniques du groupe simple :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Diagnostic de la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parce que le clivage se fait très près de la jonction dermoépidermique, la microscopie électronique permet seule de faire la différence entre une EB dystrophique, jonctionnelle et simple. Pour préciser le plan de clivage, la microscopie électronique a été remplacée par l’immunohistochimie. Pour finir on réalise une immunofluorescence directe en peau saine congelée utilisant des anticorps dirigés contre la laminine 5,  l'anti cytokératine 14, le collagène VII ou IV.
 Le diagnostic du type Weber-Cockayne est presque toujours fait par la clinique. Les autres formes nécessitent la biopsie d'une bulle récente, l'étude au microscope électronique ou avec l'aide d'anticorps fluorescents met en évidence le type de lésions.
-Le diagnostic génétique est possible mais rarement utilisé en pratique clinique. Il est surtout utilisé pour le conseil génétique[1].
+Le diagnostic génétique est possible mais rarement utilisé en pratique clinique. Il est surtout utilisé pour le conseil génétique.
 Diagnostic différentiel :
 Une dermatose bulleuse auto-immune est éliminée sur la négativité de l’IFD.  
 </t>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Origine et évolution de la maladie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine est génétique. L'« accident » génétique provoque une défaillance du système d'adhésion des cellules dermiques et des différentes couches de l'épiderme.
 La peau est rendue extrêmement fragile et se décolle au moindre frottement.
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,9 +643,11 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre et novembre 2015, une équipe de chercheurs et de médecins a réussi à soigner un patient atteint par cette maladie, en faisant une greffe de peau génétiquement modifiée[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre et novembre 2015, une équipe de chercheurs et de médecins a réussi à soigner un patient atteint par cette maladie, en faisant une greffe de peau génétiquement modifiée,.
 L’atteinte d’épidermolyse bulleuse chez les nouveau-nés représente un risque infectieux majeur. La prise en charge pluridisciplinaire sera alors essentielle. Il sera nécessaire de mobiliser autant les infirmières, les dermatologues, une équipe de lutte contre la douleur, une diététicienne ainsi qu’une équipe de rééducation fonctionnelle. De plus, des spécialistes de la génétique permettent d’expliquer les raisons de la survenue de la maladie et même d’accompagner un couple dans un projet parental. Ce sont l’ensemble des interventions du personnel médical qui pourra optimiser un meilleur traitement de la maladie. Les soins de la peau sont souvent longs, soit plusieurs heures par jour, prolongés et douloureux. Ces soins nécessitent également d’être contrôlés régulièrement. De plus, il est important de savoir que la maladie d'épidermolyse bulleuse ne concerne pas seulement la peau. Elle peut entraîner des difficultés de déplacement, une atteinte oculaire, des difficultés alimentaires d’où le besoin d’être pris en charge par un corps médical pluridisciplinaire. Elle ne concerne donc pas que le côté visuel et le ressenti psychologique de la maladie.
 Le diagnostic repose sur les informations cliniques et l'analyse immunohistochimique et ultrastructurale d'une biopsie de peau.
 La prise en charge de cette pathologie comprend la protection de la peau contre les traumatismes et la prévention des infections secondaires.
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activité des enfants doit diminuer les risques de traumatisme et les nouvelles bulles devront être percées.
 Le traitement a pour objectif d’éviter la formation de bulle en protégeant la peau, en évitant les traumatismes et en soignant les blessures. L'habillement se fera en trois couches : Une non adhérente au contact de la peau, une deuxième protection rembourrée  pour la stabilité et la troisième élastique. L'utilisation du chlorure d'aluminium et du cyproheptadine peut réduire la formation de bulles chez certains individus.
@@ -677,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89pidermolyse_bulleuse_simple</t>
+          <t>Épidermolyse_bulleuse_simple</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -695,7 +717,9 @@
           <t>Organismes à contacter</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des établissements de référence en France pour les maladies rares telles que l'épidermolyse bulleuse.  Ces centres ont été labellisés par le ministère de la santé, ils permettent d’améliorer le diagnostic et la prise en charge de ces maladies rares.
 Quatre centres de référence :
